--- a/.source/Card/신한카드_김찬식_2021-2022.xlsx
+++ b/.source/Card/신한카드_김찬식_2021-2022.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor_AI_Project/MYBCINFO/MYBCCARD/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor/MyInfo/.source/Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AC558EF9-C5DA-400C-B5FD-3D4EB58B83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1574DD8A-BCA0-4194-9899-B3756995D1BF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{AC558EF9-C5DA-400C-B5FD-3D4EB58B83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9C39DDC-C2C0-4C56-88C6-0AF5C193FE00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{124E5D1D-04F0-44FD-9A35-9706C2732BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{124E5D1D-04F0-44FD-9A35-9706C2732BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$698</definedName>
+  </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
@@ -1075,10 +1078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A10DE-D500-459E-B3E9-281750E55395}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L698"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L530" sqref="L530"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E658" sqref="E658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>44198</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>44198</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>44200</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>44202</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>44202</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>44202</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>44203</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>44204</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>44204</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>44204</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>44204</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>44206</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>44208</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>44209</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>44209</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>44211</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>44211</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>44213</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>44214</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>44215</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>44216</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>44216</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>44216</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>44216</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>44217</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>44218</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>44220</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>44221</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>44221</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>44223</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>44223</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>44225</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>44225</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>44226</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>44228</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>44228</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>44227</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>44227</v>
       </c>
@@ -2523,12 +2527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G42" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>44230</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>44230</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44230</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>44230</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>44230</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44232</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>44232</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>44232</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>44233</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>44233</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>44233</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>44234</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>44240</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>44240</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>44236</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>44236</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>44236</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>44237</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>44238</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>44239</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>44237</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>44239</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>44240</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>44241</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>44242</v>
       </c>
@@ -3403,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>44242</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>44243</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>44243</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>44244</v>
       </c>
@@ -3543,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>44244</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>44244</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>44245</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>44246</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>44246</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>44247</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>44248</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>44249</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>44251</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>44252</v>
       </c>
@@ -3924,12 +3928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G83" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>44253</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>44254</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>44255</v>
       </c>
@@ -4034,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>44255</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>44254</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>44256</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>44227</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>44256</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>44257</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>44227</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>44259</v>
       </c>
@@ -4345,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>44259</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>44260</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>44262</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>44263</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>44264</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>44265</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>44267</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>44267</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>44267</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>44267</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>44268</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>44270</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>44270</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>44270</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>44271</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>44272</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>44272</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>44272</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>44272</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>44272</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>44273</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>44274</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>44274</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>44275</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>44275</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>44275</v>
       </c>
@@ -5317,12 +5321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G124" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>44277</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>44278</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>44279</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>44279</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>44279</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>44280</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>44282</v>
       </c>
@@ -5567,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>44282</v>
       </c>
@@ -5602,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>44282</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>44282</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>44284</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>44284</v>
       </c>
@@ -5742,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>44285</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>44285</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>44285</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>44285</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>44255</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>44255</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>44287</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>44286</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>44287</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>44255</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>44286</v>
       </c>
@@ -6127,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>44286</v>
       </c>
@@ -6162,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>44288</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>44289</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>44290</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>44291</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>44291</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>44291</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>44292</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>44292</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>44293</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>44299</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>44299</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>44295</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>44295</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="5">
         <v>44294</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="5">
         <v>44296</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5">
         <v>44296</v>
       </c>
@@ -6722,12 +6726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G165" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5">
         <v>44297</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="5">
         <v>44298</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="5">
         <v>44299</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="5">
         <v>44300</v>
       </c>
@@ -6867,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="5">
         <v>44301</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="5">
         <v>44303</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="5">
         <v>44304</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="5">
         <v>44305</v>
       </c>
@@ -7038,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="5">
         <v>44306</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="5">
         <v>44307</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="5">
         <v>44309</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="5">
         <v>44310</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5">
         <v>44312</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="5">
         <v>44313</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5">
         <v>44314</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="5">
         <v>44316</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="5">
         <v>44317</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="5">
         <v>44318</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="5">
         <v>44286</v>
       </c>
@@ -7423,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="5">
         <v>44286</v>
       </c>
@@ -7458,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="5">
         <v>44286</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="5">
         <v>44319</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="5">
         <v>44286</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="5">
         <v>44320</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="5">
         <v>44321</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="5">
         <v>44321</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="5">
         <v>44321</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="5">
         <v>44322</v>
       </c>
@@ -7769,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="5">
         <v>44323</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="5">
         <v>44323</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="5">
         <v>44323</v>
       </c>
@@ -7874,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="5">
         <v>44323</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="5">
         <v>44324</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="5">
         <v>44323</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="5">
         <v>44323</v>
       </c>
@@ -8014,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="5">
         <v>44329</v>
       </c>
@@ -8049,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="5">
         <v>44329</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="5">
         <v>44326</v>
       </c>
@@ -8119,12 +8123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G206" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="5">
         <v>44327</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="5">
         <v>44328</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="5">
         <v>44328</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="5">
         <v>44328</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5">
         <v>44329</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="5">
         <v>44330</v>
       </c>
@@ -8334,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5">
         <v>44331</v>
       </c>
@@ -8369,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="5">
         <v>44331</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="5">
         <v>44331</v>
       </c>
@@ -8439,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="5">
         <v>44331</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="5">
         <v>44331</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="5">
         <v>44332</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5">
         <v>44334</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="5">
         <v>44334</v>
       </c>
@@ -8614,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5">
         <v>44335</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="5">
         <v>44334</v>
       </c>
@@ -8684,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="5">
         <v>44335</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="5">
         <v>44336</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="5">
         <v>44337</v>
       </c>
@@ -8789,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="5">
         <v>44338</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="5">
         <v>44340</v>
       </c>
@@ -8859,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="5">
         <v>44339</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="5">
         <v>44340</v>
       </c>
@@ -8929,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="5">
         <v>44341</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="5">
         <v>44342</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="5">
         <v>44343</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="5">
         <v>44344</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="5">
         <v>44348</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="5">
         <v>44347</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="5">
         <v>44316</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="5">
         <v>44348</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="5">
         <v>44349</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="5">
         <v>44349</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="5">
         <v>44316</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="5">
         <v>44349</v>
       </c>
@@ -9349,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="5">
         <v>44351</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="5">
         <v>44352</v>
       </c>
@@ -9419,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="5">
         <v>44352</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="5">
         <v>44354</v>
       </c>
@@ -9520,12 +9524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G247" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="5">
         <v>44354</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="5">
         <v>44354</v>
       </c>
@@ -9595,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="5">
         <v>44354</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="5">
         <v>44355</v>
       </c>
@@ -9665,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="5">
         <v>44360</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="5">
         <v>44357</v>
       </c>
@@ -9766,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="5">
         <v>44358</v>
       </c>
@@ -9801,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="5">
         <v>44358</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="5">
         <v>44360</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="5">
         <v>44365</v>
       </c>
@@ -9906,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="5">
         <v>44365</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="5">
         <v>44365</v>
       </c>
@@ -9976,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="5">
         <v>44364</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="5">
         <v>44365</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="5">
         <v>44364</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="5">
         <v>44368</v>
       </c>
@@ -10116,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="5">
         <v>44369</v>
       </c>
@@ -10151,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="5">
         <v>44370</v>
       </c>
@@ -10186,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="5">
         <v>44370</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="5">
         <v>44371</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="5">
         <v>44372</v>
       </c>
@@ -10291,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="5">
         <v>44373</v>
       </c>
@@ -10326,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="5">
         <v>44373</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="5">
         <v>44374</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="5">
         <v>44374</v>
       </c>
@@ -10431,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="5">
         <v>44375</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="5">
         <v>44376</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="5">
         <v>44376</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="5">
         <v>44377</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="5">
         <v>44378</v>
       </c>
@@ -10606,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="5">
         <v>44378</v>
       </c>
@@ -10641,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="5">
         <v>44347</v>
       </c>
@@ -10676,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="5">
         <v>44379</v>
       </c>
@@ -10711,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="5">
         <v>44380</v>
       </c>
@@ -10746,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="5">
         <v>44381</v>
       </c>
@@ -10781,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="5">
         <v>44382</v>
       </c>
@@ -10816,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="5">
         <v>44382</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="5">
         <v>44383</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="5">
         <v>44385</v>
       </c>
@@ -10921,12 +10925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G288" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="5">
         <v>44390</v>
       </c>
@@ -10961,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="5">
         <v>44390</v>
       </c>
@@ -10996,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="5">
         <v>44386</v>
       </c>
@@ -11031,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="5">
         <v>44386</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="5">
         <v>44387</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="5">
         <v>44388</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="5">
         <v>44388</v>
       </c>
@@ -11171,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="5">
         <v>44388</v>
       </c>
@@ -11206,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="5">
         <v>44389</v>
       </c>
@@ -11241,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="5">
         <v>44389</v>
       </c>
@@ -11276,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="5">
         <v>44389</v>
       </c>
@@ -11311,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="5">
         <v>44390</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="5">
         <v>44389</v>
       </c>
@@ -11381,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="5">
         <v>44390</v>
       </c>
@@ -11416,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="5">
         <v>44390</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="5">
         <v>44391</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="5">
         <v>44391</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="5">
         <v>44392</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="5">
         <v>44392</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="5">
         <v>44392</v>
       </c>
@@ -11626,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="5">
         <v>44393</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="5">
         <v>44393</v>
       </c>
@@ -11696,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="5">
         <v>44394</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="5">
         <v>44395</v>
       </c>
@@ -11766,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="5">
         <v>44396</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="5">
         <v>44396</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="5">
         <v>44396</v>
       </c>
@@ -11871,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="5">
         <v>44397</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="5">
         <v>44397</v>
       </c>
@@ -11941,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="5">
         <v>44397</v>
       </c>
@@ -11976,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="5">
         <v>44397</v>
       </c>
@@ -12011,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="5">
         <v>44397</v>
       </c>
@@ -12046,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="5">
         <v>44397</v>
       </c>
@@ -12081,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="5">
         <v>44397</v>
       </c>
@@ -12116,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="5">
         <v>44398</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="5">
         <v>44399</v>
       </c>
@@ -12186,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="5">
         <v>44400</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="5">
         <v>44401</v>
       </c>
@@ -12256,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="5">
         <v>44401</v>
       </c>
@@ -12291,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="5">
         <v>44402</v>
       </c>
@@ -12326,12 +12330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G329" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="5">
         <v>44403</v>
       </c>
@@ -12366,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="5">
         <v>44404</v>
       </c>
@@ -12401,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="5">
         <v>44406</v>
       </c>
@@ -12436,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="5">
         <v>44406</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="5">
         <v>44407</v>
       </c>
@@ -12506,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="5">
         <v>44408</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="5">
         <v>44409</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="5">
         <v>44377</v>
       </c>
@@ -12611,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="5">
         <v>44410</v>
       </c>
@@ -12646,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="5">
         <v>44410</v>
       </c>
@@ -12681,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="5">
         <v>44377</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="5">
         <v>44411</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="5">
         <v>44411</v>
       </c>
@@ -12786,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="5">
         <v>44412</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="5">
         <v>44412</v>
       </c>
@@ -12856,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="5">
         <v>44415</v>
       </c>
@@ -12891,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="5">
         <v>44414</v>
       </c>
@@ -12926,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="5">
         <v>44416</v>
       </c>
@@ -12961,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="5">
         <v>44415</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="5">
         <v>44416</v>
       </c>
@@ -13031,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="5">
         <v>44416</v>
       </c>
@@ -13066,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="5">
         <v>44416</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="5">
         <v>44421</v>
       </c>
@@ -13136,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="5">
         <v>44421</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="5">
         <v>44417</v>
       </c>
@@ -13206,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="5">
         <v>44417</v>
       </c>
@@ -13241,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="5">
         <v>44417</v>
       </c>
@@ -13276,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="5">
         <v>44417</v>
       </c>
@@ -13311,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="5">
         <v>44418</v>
       </c>
@@ -13346,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="5">
         <v>44420</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="5">
         <v>44421</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="5">
         <v>44421</v>
       </c>
@@ -13451,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="5">
         <v>44423</v>
       </c>
@@ -13486,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="5">
         <v>44424</v>
       </c>
@@ -13521,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="5">
         <v>44425</v>
       </c>
@@ -13556,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="5">
         <v>44421</v>
       </c>
@@ -13591,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="5">
         <v>44425</v>
       </c>
@@ -13626,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="5">
         <v>44426</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="5">
         <v>44427</v>
       </c>
@@ -13696,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="5">
         <v>44427</v>
       </c>
@@ -13731,12 +13735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G370" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="5">
         <v>44427</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="5">
         <v>44427</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="5">
         <v>44427</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="5">
         <v>44427</v>
       </c>
@@ -13876,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="5">
         <v>44427</v>
       </c>
@@ -13911,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="5">
         <v>44428</v>
       </c>
@@ -13946,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="5">
         <v>44429</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="5">
         <v>44429</v>
       </c>
@@ -14016,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="5">
         <v>44431</v>
       </c>
@@ -14051,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="5">
         <v>44431</v>
       </c>
@@ -14086,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="5">
         <v>44432</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="5">
         <v>44433</v>
       </c>
@@ -14156,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="5">
         <v>44435</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="5">
         <v>44436</v>
       </c>
@@ -14226,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="5">
         <v>44437</v>
       </c>
@@ -14261,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="5">
         <v>44439</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="5">
         <v>44439</v>
       </c>
@@ -14331,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="5">
         <v>44438</v>
       </c>
@@ -14366,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="5">
         <v>44440</v>
       </c>
@@ -14401,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="5">
         <v>44439</v>
       </c>
@@ -14436,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="5">
         <v>44440</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="5">
         <v>44440</v>
       </c>
@@ -14506,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="5">
         <v>44440</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="5">
         <v>44441</v>
       </c>
@@ -14576,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="5">
         <v>44408</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="5">
         <v>44442</v>
       </c>
@@ -14646,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="5">
         <v>44442</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="5">
         <v>44444</v>
       </c>
@@ -14716,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="5">
         <v>44446</v>
       </c>
@@ -14751,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="5">
         <v>44445</v>
       </c>
@@ -14786,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="5">
         <v>44446</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="5">
         <v>44447</v>
       </c>
@@ -14856,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="5">
         <v>44452</v>
       </c>
@@ -14891,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="5">
         <v>44452</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="5">
         <v>44448</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="5">
         <v>44449</v>
       </c>
@@ -14996,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="5">
         <v>44449</v>
       </c>
@@ -15031,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="5">
         <v>44449</v>
       </c>
@@ -15066,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="5">
         <v>44450</v>
       </c>
@@ -15101,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="5">
         <v>44450</v>
       </c>
@@ -15136,12 +15140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G411" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="5">
         <v>44451</v>
       </c>
@@ -15176,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="5">
         <v>44451</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="5">
         <v>44452</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="5">
         <v>44452</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="5">
         <v>44453</v>
       </c>
@@ -15316,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="5">
         <v>44453</v>
       </c>
@@ -15351,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="5">
         <v>44453</v>
       </c>
@@ -15386,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="5">
         <v>44453</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="5">
         <v>44454</v>
       </c>
@@ -15456,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="5">
         <v>44455</v>
       </c>
@@ -15491,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="5">
         <v>44456</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="5">
         <v>44457</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="5">
         <v>44459</v>
       </c>
@@ -15596,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="5">
         <v>44461</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="5">
         <v>44463</v>
       </c>
@@ -15666,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="5">
         <v>44464</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="5">
         <v>44466</v>
       </c>
@@ -15736,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="5">
         <v>44467</v>
       </c>
@@ -15771,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="5">
         <v>44469</v>
       </c>
@@ -15806,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="5">
         <v>44439</v>
       </c>
@@ -15841,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="5">
         <v>44470</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="5">
         <v>44471</v>
       </c>
@@ -15911,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="5">
         <v>44439</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="5">
         <v>44469</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="5">
         <v>44473</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="5">
         <v>44475</v>
       </c>
@@ -16051,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="5">
         <v>44475</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="5">
         <v>44475</v>
       </c>
@@ -16121,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="5">
         <v>44476</v>
       </c>
@@ -16156,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="5">
         <v>44476</v>
       </c>
@@ -16191,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="5">
         <v>44476</v>
       </c>
@@ -16226,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="5">
         <v>44476</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="5">
         <v>44476</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="5">
         <v>44477</v>
       </c>
@@ -16331,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="5">
         <v>44479</v>
       </c>
@@ -16366,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="5">
         <v>44482</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="5">
         <v>44482</v>
       </c>
@@ -16436,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="5">
         <v>44482</v>
       </c>
@@ -16471,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="5">
         <v>44482</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="5">
         <v>44483</v>
       </c>
@@ -16541,12 +16545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G452" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="5">
         <v>44483</v>
       </c>
@@ -16581,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" s="5">
         <v>44483</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="5">
         <v>44483</v>
       </c>
@@ -16651,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="5">
         <v>44484</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="5">
         <v>44485</v>
       </c>
@@ -16721,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="5">
         <v>44482</v>
       </c>
@@ -16756,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="5">
         <v>44482</v>
       </c>
@@ -16791,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="5">
         <v>44487</v>
       </c>
@@ -16826,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="5">
         <v>44490</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="5">
         <v>44491</v>
       </c>
@@ -16896,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="5">
         <v>44494</v>
       </c>
@@ -16931,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" s="5">
         <v>44495</v>
       </c>
@@ -16966,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="5">
         <v>44496</v>
       </c>
@@ -17001,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" s="5">
         <v>44498</v>
       </c>
@@ -17036,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="5">
         <v>44499</v>
       </c>
@@ -17071,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="5">
         <v>44501</v>
       </c>
@@ -17106,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="5">
         <v>44502</v>
       </c>
@@ -17141,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="5">
         <v>44469</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="5">
         <v>44504</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="5">
         <v>44505</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="5">
         <v>44506</v>
       </c>
@@ -17281,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="5">
         <v>44505</v>
       </c>
@@ -17316,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="5">
         <v>44508</v>
       </c>
@@ -17351,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="5">
         <v>44513</v>
       </c>
@@ -17386,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="5">
         <v>44513</v>
       </c>
@@ -17421,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="5">
         <v>44510</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="5">
         <v>44510</v>
       </c>
@@ -17491,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480" s="5">
         <v>44510</v>
       </c>
@@ -17526,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" s="5">
         <v>44512</v>
       </c>
@@ -17561,7 +17565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="5">
         <v>44513</v>
       </c>
@@ -17596,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="5">
         <v>44513</v>
       </c>
@@ -17631,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="5">
         <v>44514</v>
       </c>
@@ -17666,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="5">
         <v>44514</v>
       </c>
@@ -17701,7 +17705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" s="5">
         <v>44513</v>
       </c>
@@ -17736,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" s="5">
         <v>44515</v>
       </c>
@@ -17771,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488" s="5">
         <v>44515</v>
       </c>
@@ -17806,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" s="5">
         <v>44516</v>
       </c>
@@ -17841,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" s="5">
         <v>44518</v>
       </c>
@@ -17876,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="5">
         <v>44519</v>
       </c>
@@ -17911,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492" s="5">
         <v>44519</v>
       </c>
@@ -17946,12 +17950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G493" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" s="5">
         <v>44520</v>
       </c>
@@ -17986,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" s="5">
         <v>44524</v>
       </c>
@@ -18021,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" s="5">
         <v>44523</v>
       </c>
@@ -18056,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" s="5">
         <v>44525</v>
       </c>
@@ -18091,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" s="5">
         <v>44527</v>
       </c>
@@ -18126,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" s="5">
         <v>44529</v>
       </c>
@@ -18161,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" s="5">
         <v>44529</v>
       </c>
@@ -18196,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" s="5">
         <v>44530</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" s="5">
         <v>44531</v>
       </c>
@@ -18266,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" s="5">
         <v>44500</v>
       </c>
@@ -18301,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504" s="5">
         <v>44533</v>
       </c>
@@ -18336,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" s="5">
         <v>44534</v>
       </c>
@@ -18371,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" s="5">
         <v>44535</v>
       </c>
@@ -18406,7 +18410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="5">
         <v>44536</v>
       </c>
@@ -18441,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" s="5">
         <v>44536</v>
       </c>
@@ -18476,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509" s="5">
         <v>44537</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" s="5">
         <v>44537</v>
       </c>
@@ -18546,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" s="5">
         <v>44538</v>
       </c>
@@ -18581,7 +18585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" s="5">
         <v>44538</v>
       </c>
@@ -18616,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513" s="5">
         <v>44538</v>
       </c>
@@ -18651,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" s="5">
         <v>44538</v>
       </c>
@@ -18686,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" s="5">
         <v>44543</v>
       </c>
@@ -18721,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516" s="5">
         <v>44539</v>
       </c>
@@ -18756,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" s="5">
         <v>44539</v>
       </c>
@@ -18791,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518" s="5">
         <v>44540</v>
       </c>
@@ -18826,7 +18830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519" s="5">
         <v>44541</v>
       </c>
@@ -18861,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520" s="5">
         <v>44542</v>
       </c>
@@ -18896,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" s="5">
         <v>44541</v>
       </c>
@@ -18931,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522" s="5">
         <v>44543</v>
       </c>
@@ -18966,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" s="5">
         <v>44544</v>
       </c>
@@ -19001,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" s="5">
         <v>44544</v>
       </c>
@@ -19036,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" s="5">
         <v>44544</v>
       </c>
@@ -19071,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" s="5">
         <v>44543</v>
       </c>
@@ -19106,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" s="5">
         <v>44545</v>
       </c>
@@ -19141,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528" s="5">
         <v>44547</v>
       </c>
@@ -19176,7 +19180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" s="5">
         <v>44548</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" s="5">
         <v>44549</v>
       </c>
@@ -19246,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" s="5">
         <v>44550</v>
       </c>
@@ -19281,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" s="5">
         <v>44551</v>
       </c>
@@ -19316,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533" s="5">
         <v>44551</v>
       </c>
@@ -19351,12 +19355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G534" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" s="5">
         <v>44552</v>
       </c>
@@ -19391,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" s="5">
         <v>44552</v>
       </c>
@@ -19426,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" s="5">
         <v>44552</v>
       </c>
@@ -19461,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" s="5">
         <v>44553</v>
       </c>
@@ -19496,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" s="5">
         <v>44558</v>
       </c>
@@ -19531,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540" s="5">
         <v>44559</v>
       </c>
@@ -19566,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" s="5">
         <v>44559</v>
       </c>
@@ -19601,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="5">
         <v>44559</v>
       </c>
@@ -19636,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" s="5">
         <v>44559</v>
       </c>
@@ -19671,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" s="5">
         <v>44560</v>
       </c>
@@ -19706,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" s="5">
         <v>44560</v>
       </c>
@@ -19741,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" s="5">
         <v>44530</v>
       </c>
@@ -19776,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547" s="5">
         <v>44566</v>
       </c>
@@ -19811,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" s="5">
         <v>44566</v>
       </c>
@@ -19846,7 +19850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" s="5">
         <v>44567</v>
       </c>
@@ -19881,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" s="5">
         <v>44567</v>
       </c>
@@ -19916,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" s="5">
         <v>44567</v>
       </c>
@@ -19951,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552" s="5">
         <v>44569</v>
       </c>
@@ -19986,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" s="5">
         <v>44568</v>
       </c>
@@ -20021,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554" s="5">
         <v>44569</v>
       </c>
@@ -20056,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" s="5">
         <v>44572</v>
       </c>
@@ -20091,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" s="5">
         <v>44572</v>
       </c>
@@ -20126,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" s="5">
         <v>44579</v>
       </c>
@@ -20161,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" s="5">
         <v>44579</v>
       </c>
@@ -20196,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" s="5">
         <v>44585</v>
       </c>
@@ -20231,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" s="5">
         <v>44585</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" s="5">
         <v>44585</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" s="5">
         <v>44587</v>
       </c>
@@ -20336,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" s="5">
         <v>44587</v>
       </c>
@@ -20371,7 +20375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564" s="5">
         <v>44588</v>
       </c>
@@ -20406,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" s="5">
         <v>44593</v>
       </c>
@@ -20441,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566" s="5">
         <v>44588</v>
       </c>
@@ -20476,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" s="5">
         <v>44588</v>
       </c>
@@ -20511,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568" s="5">
         <v>44595</v>
       </c>
@@ -20546,7 +20550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" s="5">
         <v>44561</v>
       </c>
@@ -20581,7 +20585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570" s="5">
         <v>44596</v>
       </c>
@@ -20616,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571" s="5">
         <v>44597</v>
       </c>
@@ -20651,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" s="5">
         <v>44596</v>
       </c>
@@ -20686,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573" s="5">
         <v>44598</v>
       </c>
@@ -20721,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574" s="5">
         <v>44596</v>
       </c>
@@ -20756,12 +20760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G575" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576" s="5">
         <v>44596</v>
       </c>
@@ -20796,7 +20800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577" s="5">
         <v>44605</v>
       </c>
@@ -20831,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578" s="5">
         <v>44605</v>
       </c>
@@ -20866,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579" s="5">
         <v>44601</v>
       </c>
@@ -20901,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580" s="5">
         <v>44606</v>
       </c>
@@ -20936,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" s="5">
         <v>44607</v>
       </c>
@@ -20971,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582" s="5">
         <v>44607</v>
       </c>
@@ -21006,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583" s="5">
         <v>44607</v>
       </c>
@@ -21041,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584" s="5">
         <v>44613</v>
       </c>
@@ -21076,7 +21080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" s="5">
         <v>44614</v>
       </c>
@@ -21111,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586" s="5">
         <v>44614</v>
       </c>
@@ -21146,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587" s="5">
         <v>44616</v>
       </c>
@@ -21181,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588" s="5">
         <v>44616</v>
       </c>
@@ -21216,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589" s="5">
         <v>44617</v>
       </c>
@@ -21251,7 +21255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590" s="5">
         <v>44619</v>
       </c>
@@ -21286,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591" s="5">
         <v>44619</v>
       </c>
@@ -21321,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592" s="5">
         <v>44619</v>
       </c>
@@ -21356,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593" s="5">
         <v>44620</v>
       </c>
@@ -21391,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594" s="5">
         <v>44620</v>
       </c>
@@ -21426,7 +21430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595" s="5">
         <v>44592</v>
       </c>
@@ -21461,7 +21465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596" s="5">
         <v>44592</v>
       </c>
@@ -21496,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597" s="5">
         <v>44592</v>
       </c>
@@ -21531,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598" s="5">
         <v>44628</v>
       </c>
@@ -21566,7 +21570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599" s="5">
         <v>44633</v>
       </c>
@@ -21601,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600" s="5">
         <v>44633</v>
       </c>
@@ -21636,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601" s="5">
         <v>44637</v>
       </c>
@@ -21671,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A602" s="5">
         <v>44639</v>
       </c>
@@ -21706,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603" s="5">
         <v>44641</v>
       </c>
@@ -21741,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604" s="5">
         <v>44643</v>
       </c>
@@ -21776,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A605" s="5">
         <v>44643</v>
       </c>
@@ -21811,7 +21815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606" s="5">
         <v>44650</v>
       </c>
@@ -21846,7 +21850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A607" s="5">
         <v>44620</v>
       </c>
@@ -21881,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A608" s="5">
         <v>44661</v>
       </c>
@@ -21916,7 +21920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609" s="5">
         <v>44664</v>
       </c>
@@ -21951,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610" s="5">
         <v>44663</v>
       </c>
@@ -21986,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A611" s="5">
         <v>44666</v>
       </c>
@@ -22021,7 +22025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612" s="5">
         <v>44666</v>
       </c>
@@ -22056,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613" s="5">
         <v>44669</v>
       </c>
@@ -22091,7 +22095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614" s="5">
         <v>44669</v>
       </c>
@@ -22126,7 +22130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615" s="5">
         <v>44671</v>
       </c>
@@ -22161,12 +22165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G616" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617" s="5">
         <v>44671</v>
       </c>
@@ -22201,7 +22205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618" s="5">
         <v>44671</v>
       </c>
@@ -22267,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A620" s="5">
         <v>44678</v>
       </c>
@@ -22302,7 +22306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621" s="5">
         <v>44651</v>
       </c>
@@ -22337,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622" s="5">
         <v>44694</v>
       </c>
@@ -22372,7 +22376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A623" s="5">
         <v>44697</v>
       </c>
@@ -22407,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624" s="5">
         <v>44699</v>
       </c>
@@ -22442,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625" s="5">
         <v>44701</v>
       </c>
@@ -22477,7 +22481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626" s="5">
         <v>44701</v>
       </c>
@@ -22512,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627" s="5">
         <v>44702</v>
       </c>
@@ -22547,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628" s="5">
         <v>44703</v>
       </c>
@@ -22582,7 +22586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629" s="5">
         <v>44704</v>
       </c>
@@ -22617,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630" s="5">
         <v>44704</v>
       </c>
@@ -22652,7 +22656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631" s="5">
         <v>44704</v>
       </c>
@@ -22687,7 +22691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632" s="5">
         <v>44711</v>
       </c>
@@ -22722,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633" s="5">
         <v>44713</v>
       </c>
@@ -22757,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634" s="5">
         <v>44712</v>
       </c>
@@ -22792,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635" s="5">
         <v>44713</v>
       </c>
@@ -22827,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636" s="5">
         <v>44681</v>
       </c>
@@ -22862,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637" s="5">
         <v>44717</v>
       </c>
@@ -22897,7 +22901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638" s="5">
         <v>44720</v>
       </c>
@@ -22932,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639" s="5">
         <v>44725</v>
       </c>
@@ -22967,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640" s="5">
         <v>44723</v>
       </c>
@@ -23002,7 +23006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641" s="5">
         <v>44723</v>
       </c>
@@ -23037,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642" s="5">
         <v>44725</v>
       </c>
@@ -23072,7 +23076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643" s="5">
         <v>44725</v>
       </c>
@@ -23107,7 +23111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644" s="5">
         <v>44733</v>
       </c>
@@ -23142,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645" s="5">
         <v>44739</v>
       </c>
@@ -23177,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646" s="5">
         <v>44739</v>
       </c>
@@ -23212,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647" s="5">
         <v>44712</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648" s="5">
         <v>44747</v>
       </c>
@@ -23282,7 +23286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649" s="5">
         <v>44755</v>
       </c>
@@ -23317,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650" s="5">
         <v>44760</v>
       </c>
@@ -23352,7 +23356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651" s="5">
         <v>44769</v>
       </c>
@@ -23387,7 +23391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652" s="5">
         <v>44769</v>
       </c>
@@ -23422,7 +23426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A653" s="5">
         <v>44742</v>
       </c>
@@ -23457,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A654" s="5">
         <v>44780</v>
       </c>
@@ -23492,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655" s="5">
         <v>44786</v>
       </c>
@@ -23527,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A656" s="5">
         <v>44793</v>
       </c>
@@ -23562,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G657" s="4" t="s">
         <v>6</v>
       </c>
@@ -23598,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659" s="5">
         <v>44802</v>
       </c>
@@ -23633,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660" s="5">
         <v>44802</v>
       </c>
@@ -23668,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661" s="5">
         <v>44804</v>
       </c>
@@ -23703,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662" s="5">
         <v>44773</v>
       </c>
@@ -23738,7 +23742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663" s="5">
         <v>44805</v>
       </c>
@@ -23773,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664" s="5">
         <v>44805</v>
       </c>
@@ -23808,7 +23812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665" s="5">
         <v>44807</v>
       </c>
@@ -23843,7 +23847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666" s="5">
         <v>44808</v>
       </c>
@@ -23878,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667" s="5">
         <v>44805</v>
       </c>
@@ -23913,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668" s="5">
         <v>44808</v>
       </c>
@@ -23948,7 +23952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669" s="5">
         <v>44807</v>
       </c>
@@ -23983,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670" s="5">
         <v>44817</v>
       </c>
@@ -24018,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671" s="5">
         <v>44820</v>
       </c>
@@ -24053,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672" s="5">
         <v>44821</v>
       </c>
@@ -24088,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673" s="5">
         <v>44833</v>
       </c>
@@ -24123,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674" s="5">
         <v>44833</v>
       </c>
@@ -24158,7 +24162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675" s="5">
         <v>44835</v>
       </c>
@@ -24193,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676" s="5">
         <v>44834</v>
       </c>
@@ -24228,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677" s="5">
         <v>44834</v>
       </c>
@@ -24263,7 +24267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678" s="5">
         <v>44834</v>
       </c>
@@ -24298,7 +24302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679" s="5">
         <v>44852</v>
       </c>
@@ -24333,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680" s="5">
         <v>44861</v>
       </c>
@@ -24368,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681" s="5">
         <v>44868</v>
       </c>
@@ -24403,7 +24407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682" s="5">
         <v>44869</v>
       </c>
@@ -24438,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683" s="5">
         <v>44869</v>
       </c>
@@ -24473,7 +24477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684" s="5">
         <v>44886</v>
       </c>
@@ -24508,7 +24512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685" s="5">
         <v>44899</v>
       </c>
@@ -24543,7 +24547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686" s="5">
         <v>44902</v>
       </c>
@@ -24578,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687" s="5">
         <v>44904</v>
       </c>
@@ -24613,7 +24617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688" s="5">
         <v>44904</v>
       </c>
@@ -24648,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689" s="5">
         <v>44911</v>
       </c>
@@ -24683,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690" s="5">
         <v>44914</v>
       </c>
@@ -24718,7 +24722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691" s="5">
         <v>44915</v>
       </c>
@@ -24753,7 +24757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692" s="5">
         <v>44917</v>
       </c>
@@ -24788,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693" s="5">
         <v>44921</v>
       </c>
@@ -24823,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694" s="5">
         <v>44923</v>
       </c>
@@ -24858,7 +24862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695" s="5">
         <v>44925</v>
       </c>
@@ -24893,7 +24897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696" s="5">
         <v>44926</v>
       </c>
@@ -24928,12 +24932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="G697" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A698" s="4" t="s">
         <v>190</v>
       </c>
@@ -24959,6 +24963,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D698" xr:uid="{7B3A10DE-D500-459E-B3E9-281750E55395}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="현금서비스"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" copies="0"/>
